--- a/test/FruitCake.xlsx
+++ b/test/FruitCake.xlsx
@@ -451,27 +451,27 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>calories</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>fat</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>fiber</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>dollars</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>fiber</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>calories</t>
         </is>
       </c>
     </row>
@@ -489,10 +489,10 @@
           <t>80 gram</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
-        <v>9</v>
-      </c>
+      <c r="D2" t="n">
+        <v>70</v>
+      </c>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
         <v>1.6</v>
       </c>
@@ -500,7 +500,7 @@
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="D3" t="n">
+        <v>110</v>
+      </c>
+      <c r="E3" t="n">
         <v>20</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>1.8</v>
@@ -530,7 +530,7 @@
         <v>5.7</v>
       </c>
       <c r="H3" t="n">
-        <v>110</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -547,10 +547,10 @@
           <t>160 gram</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>10</v>
-      </c>
+      <c r="D4" t="n">
+        <v>80</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
         <v>1</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0.5</v>
       </c>
       <c r="H4" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -574,10 +574,10 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>355</v>
+      </c>
+      <c r="E5" t="n">
         <v>30</v>
-      </c>
-      <c r="E5" t="n">
-        <v>39</v>
       </c>
       <c r="F5" t="n">
         <v>5.800000000000001</v>
@@ -586,7 +586,7 @@
         <v>10.3</v>
       </c>
       <c r="H5" t="n">
-        <v>355</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/test/FruitCake.xlsx
+++ b/test/FruitCake.xlsx
@@ -456,22 +456,22 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>dollars</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>protein</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>fat</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fiber</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>protein</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>dollars</t>
         </is>
       </c>
     </row>
@@ -492,15 +492,15 @@
       <c r="D2" t="n">
         <v>70</v>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>9</v>
+      </c>
       <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
         <v>1.6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -521,16 +521,16 @@
         <v>110</v>
       </c>
       <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="G3" t="n">
         <v>20</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>1.8</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -550,15 +550,15 @@
       <c r="D4" t="n">
         <v>80</v>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
       <c r="F4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="n">
         <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -577,16 +577,16 @@
         <v>355</v>
       </c>
       <c r="E5" t="n">
+        <v>39</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10.3</v>
+      </c>
+      <c r="G5" t="n">
         <v>30</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
         <v>5.800000000000001</v>
-      </c>
-      <c r="G5" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="H5" t="n">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
